--- a/Monograph/グラフの種類.xlsx
+++ b/Monograph/グラフの種類.xlsx
@@ -5,7 +5,7 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inokoryou/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inokoryou/Desktop/Monograph/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -522,15 +522,15 @@
   <dimension ref="B3:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F7"/>
+      <selection activeCell="B3" sqref="B3:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
